--- a/result/result_summary.xlsx
+++ b/result/result_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yue\chem_dataset\DEEPGNN_RT\output\GNN_TL_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yue\chem_dataset\DEEPGNN_RT\output\GNN_TL_result_0507\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF198C4-EE3B-46D8-B3A4-257687572CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E583FC-B42B-4543-9F79-D454530FCC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="25800" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>fold_num</t>
-  </si>
-  <si>
     <t>mean_absolute_error</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
   </si>
   <si>
     <t>FEM_long_412</t>
-  </si>
-  <si>
-    <t>FEM_short_73</t>
   </si>
   <si>
     <t>IPB_Halle_82</t>
@@ -142,16 +133,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -454,303 +445,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A16" sqref="A16:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="4" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7265625" style="4" customWidth="1"/>
+    <col min="2" max="5" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="70" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>47.950456429999967</v>
+      </c>
+      <c r="C2" s="2">
+        <v>31.57487424</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.15816551806000001</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.8828549899636785</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5498.5099249999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>70.052197656000033</v>
+      </c>
+      <c r="C3" s="2">
+        <v>32.598970753000003</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.17301198819999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.81518433845013949</v>
+      </c>
+      <c r="F3" s="2">
+        <v>16958.13317872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>119.35828492</v>
+      </c>
+      <c r="C4" s="2">
+        <v>60.056081710000008</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.17560771593999991</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.94492698668219366</v>
+      </c>
+      <c r="F4" s="2">
+        <v>58603.797774999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21.225832357000002</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14.529463530999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.23793846647</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.9098951146865174</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1008.84702882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>16.757066855000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.0025344849999964</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.27946183019999993</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.88177192590706999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>832.51249059999986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>13.273598454999989</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.7593864250000024</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.15849636327</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.87104267138551006</v>
+      </c>
+      <c r="F7" s="2">
+        <v>854.17193409000015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>49.596314420000027</v>
+      </c>
+      <c r="C8" s="2">
+        <v>24.855491014000009</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.5063761779999977E-2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.85178027241761878</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8001.3230280000016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>4.5</v>
-      </c>
-      <c r="C2">
-        <v>4.5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>70.749356930000005</v>
-      </c>
-      <c r="E2" s="4">
-        <v>38.617504855</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.16445295751</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.38533440977611327</v>
-      </c>
-      <c r="H2" s="4">
-        <v>13609.610825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>4.5</v>
-      </c>
-      <c r="C3">
-        <v>4.5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>48.456238779999993</v>
-      </c>
-      <c r="E3" s="4">
-        <v>31.625693139999999</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.15442546010000011</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.87654765879236918</v>
-      </c>
-      <c r="H3" s="4">
-        <v>5572.6285959999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>4.5</v>
-      </c>
-      <c r="C4">
-        <v>4.5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>69.809264789999986</v>
-      </c>
-      <c r="E4" s="4">
-        <v>33.992261327999998</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.16661907351999999</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.82252729747435338</v>
-      </c>
-      <c r="H4" s="4">
-        <v>15695.851914599991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>4.5</v>
-      </c>
-      <c r="C5">
-        <v>4.5</v>
-      </c>
-      <c r="D5" s="4">
-        <v>116.07938163999999</v>
-      </c>
-      <c r="E5" s="4">
-        <v>59.222336130000024</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.19464697023999999</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.94681011378392255</v>
-      </c>
-      <c r="H5" s="4">
-        <v>59924.13863300001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>4.5</v>
-      </c>
-      <c r="C6">
-        <v>4.5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>85.266896979999984</v>
-      </c>
-      <c r="E6" s="4">
-        <v>57.522322709999997</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.19590125758999999</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.81493473530688521</v>
-      </c>
-      <c r="H6" s="4">
-        <v>22914.371631000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B9" s="2">
+        <v>71.381888580000009</v>
+      </c>
+      <c r="C9" s="2">
+        <v>37.121579439999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.17397758424000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.38719331379568472</v>
+      </c>
+      <c r="F9" s="2">
+        <v>13911.38737100001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>4.5</v>
-      </c>
-      <c r="C7">
-        <v>4.5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>21.842301325000001</v>
-      </c>
-      <c r="E7" s="4">
-        <v>14.961839593000001</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.27522623871999979</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.86879412639893716</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1125.919680649999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>4.5</v>
-      </c>
-      <c r="C8">
-        <v>4.5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>16.916252934999989</v>
-      </c>
-      <c r="E8" s="4">
-        <v>8.9816643480000042</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.22053982929999991</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.87941344657112541</v>
-      </c>
-      <c r="H8" s="4">
-        <v>879.96103849999986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>4.5</v>
-      </c>
-      <c r="C9">
-        <v>4.5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>12.868861167</v>
-      </c>
-      <c r="E9" s="4">
-        <v>7.9463975060000003</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.15295955097</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.87559393300467425</v>
-      </c>
-      <c r="H9" s="4">
-        <v>721.82749828000033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10">
-        <v>4.5</v>
-      </c>
-      <c r="C10">
-        <v>4.5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>72.831093400000043</v>
-      </c>
-      <c r="E10" s="4">
-        <v>48.194285070000006</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.11307230075999999</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.64360382561815144</v>
-      </c>
-      <c r="H10" s="4">
-        <v>13975.83467099999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>4.5</v>
-      </c>
-      <c r="C11">
-        <v>4.5</v>
-      </c>
-      <c r="D11" s="4">
-        <v>51.704969370000008</v>
-      </c>
-      <c r="E11" s="4">
-        <v>25.511000694999989</v>
-      </c>
-      <c r="F11" s="4">
-        <v>5.7068058370000022E-2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.8330075864508002</v>
-      </c>
-      <c r="H11" s="4">
-        <v>8507.982198000007</v>
+      <c r="B10" s="2">
+        <v>77.117810910000031</v>
+      </c>
+      <c r="C10" s="2">
+        <v>50.526063570000012</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.11968468082</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.61639727117941367</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15309.380569000001</v>
       </c>
     </row>
   </sheetData>

--- a/result/result_summary.xlsx
+++ b/result/result_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yue\chem_dataset\DEEPGNN_RT\output\GNN_TL_result_0507\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEEPGNN_RT\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E583FC-B42B-4543-9F79-D454530FCC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131A02E7-C2E2-46A3-89F2-2731B7405D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>group</t>
   </si>
   <si>
     <t>mean_absolute_error</t>
@@ -40,40 +40,40 @@
     <t>mean_squared_error</t>
   </si>
   <si>
-    <t>Cao_HILIC_116</t>
-  </si>
-  <si>
-    <t>Eawag_XBridgeC18_364</t>
-  </si>
-  <si>
-    <t>FEM_lipids_72</t>
-  </si>
-  <si>
-    <t>FEM_long_412</t>
-  </si>
-  <si>
-    <t>IPB_Halle_82</t>
-  </si>
-  <si>
-    <t>LIFE_new_184</t>
-  </si>
-  <si>
-    <t>LIFE_old_194</t>
-  </si>
-  <si>
-    <t>MTBLS87_147</t>
-  </si>
-  <si>
-    <t>UniToyama_Atlantis_143</t>
+    <t>Cao_HILIC_116_result</t>
+  </si>
+  <si>
+    <t>Eawag_XBridgeC18_364_result</t>
+  </si>
+  <si>
+    <t>FEM_lipids_72_result</t>
+  </si>
+  <si>
+    <t>FEM_long_412_result</t>
+  </si>
+  <si>
+    <t>FEM_short_73_result</t>
+  </si>
+  <si>
+    <t>IPB_Halle_82_result</t>
+  </si>
+  <si>
+    <t>LIFE_new_184_result</t>
+  </si>
+  <si>
+    <t>LIFE_old_194_result</t>
+  </si>
+  <si>
+    <t>MTBLS87_147_result</t>
+  </si>
+  <si>
+    <t>UniToyama_Atlantis_143_result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,6 +86,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -131,17 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -445,21 +439,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD21"/>
+      <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" style="4" customWidth="1"/>
-    <col min="2" max="5" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.46875" customWidth="1"/>
+    <col min="6" max="6" width="10.46875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -478,189 +471,208 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>67.644639459999993</v>
+      </c>
+      <c r="C2">
+        <v>36.99459804</v>
+      </c>
+      <c r="D2">
+        <v>0.36632994804000002</v>
+      </c>
+      <c r="E2">
+        <v>0.74078094841632025</v>
+      </c>
+      <c r="F2">
+        <v>12082.312456400001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>47.950456429999967</v>
-      </c>
-      <c r="C2" s="2">
-        <v>31.57487424</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.15816551806000001</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.8828549899636785</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5498.5099249999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3">
+        <v>45.966565709999998</v>
+      </c>
+      <c r="C3">
+        <v>29.590680039999999</v>
+      </c>
+      <c r="D3">
+        <v>0.15015708892999999</v>
+      </c>
+      <c r="E3">
+        <v>0.90360951918237575</v>
+      </c>
+      <c r="F3">
+        <v>5034.9700629999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>70.052197656000033</v>
-      </c>
-      <c r="C3" s="2">
-        <v>32.598970753000003</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.17301198819999999</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.81518433845013949</v>
-      </c>
-      <c r="F3" s="2">
-        <v>16958.13317872</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4">
+        <v>74.476134897000009</v>
+      </c>
+      <c r="C4">
+        <v>32.640518120999999</v>
+      </c>
+      <c r="D4">
+        <v>0.30124407397000003</v>
+      </c>
+      <c r="E4">
+        <v>0.82409665872759708</v>
+      </c>
+      <c r="F4">
+        <v>20823.648050899999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>119.35828492</v>
-      </c>
-      <c r="C4" s="2">
-        <v>60.056081710000008</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.17560771593999991</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.94492698668219366</v>
-      </c>
-      <c r="F4" s="2">
-        <v>58603.797774999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5">
+        <v>110.89306497</v>
+      </c>
+      <c r="C5">
+        <v>55.350917170000002</v>
+      </c>
+      <c r="D5">
+        <v>0.26852135079</v>
+      </c>
+      <c r="E5">
+        <v>0.94738138462065347</v>
+      </c>
+      <c r="F5">
+        <v>54966.799933000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
-        <v>21.225832357000002</v>
-      </c>
-      <c r="C5" s="2">
-        <v>14.529463530999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.23793846647</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.9098951146865174</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1008.84702882</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6">
+        <v>77.70051989000001</v>
+      </c>
+      <c r="C6">
+        <v>50.840162747000001</v>
+      </c>
+      <c r="D6">
+        <v>0.22546933599999999</v>
+      </c>
+      <c r="E6">
+        <v>0.88799785182391811</v>
+      </c>
+      <c r="F6">
+        <v>14462.427694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
-        <v>16.757066855000001</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.0025344849999964</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.27946183019999993</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.88177192590706999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>832.51249059999986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7">
+        <v>21.197854583000002</v>
+      </c>
+      <c r="C7">
+        <v>14.134252016</v>
+      </c>
+      <c r="D7">
+        <v>0.28057195605000002</v>
+      </c>
+      <c r="E7">
+        <v>0.91106138342090925</v>
+      </c>
+      <c r="F7">
+        <v>1084.09313395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
-        <v>13.273598454999989</v>
-      </c>
-      <c r="C7" s="2">
-        <v>7.7593864250000024</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.15849636327</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.87104267138551006</v>
-      </c>
-      <c r="F7" s="2">
-        <v>854.17193409000015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8">
+        <v>18.126921253999999</v>
+      </c>
+      <c r="C8">
+        <v>9.8947713660000005</v>
+      </c>
+      <c r="D8">
+        <v>0.28049290500000001</v>
+      </c>
+      <c r="E8">
+        <v>0.87449243771036844</v>
+      </c>
+      <c r="F8">
+        <v>939.25747845000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>12.073500810000001</v>
+      </c>
+      <c r="C9">
+        <v>7.2765174260000007</v>
+      </c>
+      <c r="D9">
+        <v>0.17280310755</v>
+      </c>
+      <c r="E9">
+        <v>0.89143120617398131</v>
+      </c>
+      <c r="F9">
+        <v>396.60972737999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2">
-        <v>49.596314420000027</v>
-      </c>
-      <c r="C8" s="2">
-        <v>24.855491014000009</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5.5063761779999977E-2</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.85178027241761878</v>
-      </c>
-      <c r="F8" s="2">
-        <v>8001.3230280000016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>71.381888580000009</v>
-      </c>
-      <c r="C9" s="2">
-        <v>37.121579439999998</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.17397758424000001</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.38719331379568472</v>
-      </c>
-      <c r="F9" s="2">
-        <v>13911.38737100001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>77.117810910000031</v>
-      </c>
-      <c r="C10" s="2">
-        <v>50.526063570000012</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.11968468082</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.61639727117941367</v>
-      </c>
-      <c r="F10" s="2">
-        <v>15309.380569000001</v>
+      <c r="B10">
+        <v>79.738555720000008</v>
+      </c>
+      <c r="C10">
+        <v>44.590852820000002</v>
+      </c>
+      <c r="D10">
+        <v>0.12242380461000001</v>
+      </c>
+      <c r="E10">
+        <v>0.7025292516731918</v>
+      </c>
+      <c r="F10">
+        <v>18665.937597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>50.032968899999993</v>
+      </c>
+      <c r="C11">
+        <v>27.522101483</v>
+      </c>
+      <c r="D11">
+        <v>7.1011971430000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.90402977708311938</v>
+      </c>
+      <c r="F11">
+        <v>6914.7367295000004</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/result/result_summary.xlsx
+++ b/result/result_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEEPGNN_RT\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131A02E7-C2E2-46A3-89F2-2731B7405D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094C296-A2C9-4CA5-9651-410179B7AE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34510" yWindow="7010" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,6 +74,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -132,11 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,233 +449,234 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.46875" customWidth="1"/>
-    <col min="6" max="6" width="10.46875" customWidth="1"/>
+    <col min="2" max="5" width="8.9375" style="3"/>
+    <col min="6" max="6" width="10.46875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>67.644639459999993</v>
-      </c>
-      <c r="C2">
-        <v>36.99459804</v>
-      </c>
-      <c r="D2">
-        <v>0.36632994804000002</v>
-      </c>
-      <c r="E2">
-        <v>0.74078094841632025</v>
-      </c>
-      <c r="F2">
-        <v>12082.312456400001</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45.966565709999998</v>
+      </c>
+      <c r="C2" s="3">
+        <v>29.590680039999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.15015708892999999</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.90360951918237575</v>
+      </c>
+      <c r="F2" s="3">
+        <v>5034.9700629999998</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>45.966565709999998</v>
-      </c>
-      <c r="C3">
-        <v>29.590680039999999</v>
-      </c>
-      <c r="D3">
-        <v>0.15015708892999999</v>
-      </c>
-      <c r="E3">
-        <v>0.90360951918237575</v>
-      </c>
-      <c r="F3">
-        <v>5034.9700629999998</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>74.476134897000009</v>
+      </c>
+      <c r="C3" s="3">
+        <v>32.640518120999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.30124407397000003</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.82409665872759708</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20823.648050899999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>74.476134897000009</v>
-      </c>
-      <c r="C4">
-        <v>32.640518120999999</v>
-      </c>
-      <c r="D4">
-        <v>0.30124407397000003</v>
-      </c>
-      <c r="E4">
-        <v>0.82409665872759708</v>
-      </c>
-      <c r="F4">
-        <v>20823.648050899999</v>
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>110.89306497</v>
+      </c>
+      <c r="C4" s="3">
+        <v>55.350917170000002</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.26852135079</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.94738138462065347</v>
+      </c>
+      <c r="F4" s="3">
+        <v>54966.799933000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>110.89306497</v>
-      </c>
-      <c r="C5">
-        <v>55.350917170000002</v>
-      </c>
-      <c r="D5">
-        <v>0.26852135079</v>
-      </c>
-      <c r="E5">
-        <v>0.94738138462065347</v>
-      </c>
-      <c r="F5">
-        <v>54966.799933000002</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>77.70051989000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>50.840162747000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.22546933599999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.88799785182391811</v>
+      </c>
+      <c r="F5" s="3">
+        <v>14462.427694</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>77.70051989000001</v>
-      </c>
-      <c r="C6">
-        <v>50.840162747000001</v>
-      </c>
-      <c r="D6">
-        <v>0.22546933599999999</v>
-      </c>
-      <c r="E6">
-        <v>0.88799785182391811</v>
-      </c>
-      <c r="F6">
-        <v>14462.427694</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>21.197854583000002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>14.134252016</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.28057195605000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.91106138342090925</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1084.09313395</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>21.197854583000002</v>
-      </c>
-      <c r="C7">
-        <v>14.134252016</v>
-      </c>
-      <c r="D7">
-        <v>0.28057195605000002</v>
-      </c>
-      <c r="E7">
-        <v>0.91106138342090925</v>
-      </c>
-      <c r="F7">
-        <v>1084.09313395</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>18.126921253999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>9.8947713660000005</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.28049290500000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.87449243771036844</v>
+      </c>
+      <c r="F7" s="3">
+        <v>939.25747845000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>18.126921253999999</v>
-      </c>
-      <c r="C8">
-        <v>9.8947713660000005</v>
-      </c>
-      <c r="D8">
-        <v>0.28049290500000001</v>
-      </c>
-      <c r="E8">
-        <v>0.87449243771036844</v>
-      </c>
-      <c r="F8">
-        <v>939.25747845000001</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>12.073500810000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7.2765174260000007</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.17280310755</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.89143120617398131</v>
+      </c>
+      <c r="F8" s="3">
+        <v>396.60972737999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>12.073500810000001</v>
-      </c>
-      <c r="C9">
-        <v>7.2765174260000007</v>
-      </c>
-      <c r="D9">
-        <v>0.17280310755</v>
-      </c>
-      <c r="E9">
-        <v>0.89143120617398131</v>
-      </c>
-      <c r="F9">
-        <v>396.60972737999998</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>50.032968899999993</v>
+      </c>
+      <c r="C9" s="3">
+        <v>27.522101483</v>
+      </c>
+      <c r="D9" s="3">
+        <v>7.1011971430000001E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.90402977708311938</v>
+      </c>
+      <c r="F9" s="3">
+        <v>6914.7367295000004</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>79.738555720000008</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>44.590852820000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.12242380461000001</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.7025292516731918</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>18665.937597</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>50.032968899999993</v>
-      </c>
-      <c r="C11">
-        <v>27.522101483</v>
-      </c>
-      <c r="D11">
-        <v>7.1011971430000001E-2</v>
-      </c>
-      <c r="E11">
-        <v>0.90402977708311938</v>
-      </c>
-      <c r="F11">
-        <v>6914.7367295000004</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>67.644639459999993</v>
+      </c>
+      <c r="C11" s="3">
+        <v>36.99459804</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.36632994804000002</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.74078094841632025</v>
+      </c>
+      <c r="F11" s="3">
+        <v>12082.312456400001</v>
       </c>
     </row>
   </sheetData>

--- a/result/result_summary.xlsx
+++ b/result/result_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEEPGNN_RT\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6094C296-A2C9-4CA5-9651-410179B7AE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98309DC1-3213-4393-8A77-AFA2A91C0026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34510" yWindow="7010" windowWidth="34620" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,8 +74,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -135,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -144,6 +145,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,14 +454,14 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.46875" customWidth="1"/>
     <col min="2" max="5" width="8.9375" style="3"/>
-    <col min="6" max="6" width="10.46875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.46875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
@@ -475,7 +480,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -495,7 +500,7 @@
       <c r="E2" s="3">
         <v>0.90360951918237575</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>5034.9700629999998</v>
       </c>
     </row>
@@ -515,7 +520,7 @@
       <c r="E3" s="3">
         <v>0.82409665872759708</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>20823.648050899999</v>
       </c>
     </row>
@@ -535,7 +540,7 @@
       <c r="E4" s="3">
         <v>0.94738138462065347</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>54966.799933000002</v>
       </c>
     </row>
@@ -555,7 +560,7 @@
       <c r="E5" s="3">
         <v>0.88799785182391811</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>14462.427694</v>
       </c>
     </row>
@@ -575,7 +580,7 @@
       <c r="E6" s="3">
         <v>0.91106138342090925</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>1084.09313395</v>
       </c>
     </row>
@@ -595,7 +600,7 @@
       <c r="E7" s="3">
         <v>0.87449243771036844</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>939.25747845000001</v>
       </c>
     </row>
@@ -615,7 +620,7 @@
       <c r="E8" s="3">
         <v>0.89143120617398131</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>396.60972737999998</v>
       </c>
     </row>
@@ -635,48 +640,48 @@
       <c r="E9" s="3">
         <v>0.90402977708311938</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>6914.7367295000004</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>79.738555720000008</v>
+        <v>67.644639459999993</v>
       </c>
       <c r="C10" s="3">
-        <v>44.590852820000002</v>
+        <v>36.99459804</v>
       </c>
       <c r="D10" s="3">
-        <v>0.12242380461000001</v>
+        <v>0.36632994804000002</v>
       </c>
       <c r="E10" s="3">
-        <v>0.7025292516731918</v>
-      </c>
-      <c r="F10" s="3">
-        <v>18665.937597</v>
+        <v>0.74078094841632025</v>
+      </c>
+      <c r="F10" s="5">
+        <v>12082.312456400001</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
-        <v>67.644639459999993</v>
+        <v>79.738555720000008</v>
       </c>
       <c r="C11" s="3">
-        <v>36.99459804</v>
+        <v>44.590852820000002</v>
       </c>
       <c r="D11" s="3">
-        <v>0.36632994804000002</v>
+        <v>0.12242380461000001</v>
       </c>
       <c r="E11" s="3">
-        <v>0.74078094841632025</v>
-      </c>
-      <c r="F11" s="3">
-        <v>12082.312456400001</v>
+        <v>0.7025292516731918</v>
+      </c>
+      <c r="F11" s="5">
+        <v>18665.937597</v>
       </c>
     </row>
   </sheetData>
